--- a/night-wizard/checklist.xlsx
+++ b/night-wizard/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/night-wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E0A3B81-20C4-9446-816E-DC47216428EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC2C77A9-2E70-4B40-9C94-F45E03FE2D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{6748355C-BD80-FF48-A24F-C90A8ACF571C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -225,9 +225,6 @@
     <t>The Son of the White Sun</t>
   </si>
   <si>
-    <t>sun_of_the_white_sun.jpg</t>
-  </si>
-  <si>
     <t>合わせ鏡の神子</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
   </si>
   <si>
     <t>only_one_clear_way.jpg</t>
+  </si>
+  <si>
+    <t>son_of_the_white_sun.jpg</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,7 +785,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -796,16 +796,16 @@
         <v>2006</v>
       </c>
       <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
         <v>64</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
         <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>66</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -896,16 +896,16 @@
         <v>2008</v>
       </c>
       <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
         <v>68</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>69</v>
       </c>
       <c r="F12" t="s">
         <v>58</v>
@@ -936,16 +936,16 @@
         <v>2009</v>
       </c>
       <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
         <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>72</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -976,16 +976,16 @@
         <v>2010</v>
       </c>
       <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
         <v>73</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
         <v>74</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>75</v>
       </c>
       <c r="F16" t="s">
         <v>58</v>
@@ -996,16 +996,16 @@
         <v>2010</v>
       </c>
       <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
         <v>77</v>
       </c>
-      <c r="C17" t="s">
-        <v>78</v>
-      </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
@@ -1056,16 +1056,16 @@
         <v>2012</v>
       </c>
       <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
         <v>79</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
         <v>80</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>81</v>
       </c>
       <c r="F20" t="s">
         <v>58</v>
@@ -1076,16 +1076,16 @@
         <v>2012</v>
       </c>
       <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
         <v>82</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
         <v>83</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>84</v>
       </c>
       <c r="F21" t="s">
         <v>58</v>
@@ -1096,16 +1096,16 @@
         <v>2013</v>
       </c>
       <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
         <v>86</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>87</v>
       </c>
       <c r="F22" t="s">
         <v>58</v>

--- a/night-wizard/checklist.xlsx
+++ b/night-wizard/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/night-wizard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/night-wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC2C77A9-2E70-4B40-9C94-F45E03FE2D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94D0691-FE3F-0448-A1AF-992ED89F1BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{6748355C-BD80-FF48-A24F-C90A8ACF571C}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="15780" xr2:uid="{6748355C-BD80-FF48-A24F-C90A8ACF571C}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
   <si>
     <t>year</t>
   </si>
@@ -298,6 +298,15 @@
   </si>
   <si>
     <t>son_of_the_white_sun.jpg</t>
+  </si>
+  <si>
+    <t>リーチ・フォー・ザ・スターズ</t>
+  </si>
+  <si>
+    <t>Reach for the Stars</t>
+  </si>
+  <si>
+    <t>reach_for_the_stars.jpg</t>
   </si>
 </sst>
 </file>
@@ -658,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEFB592-3302-F447-9CD6-FD2D3C54E4A2}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,22 +882,22 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -896,39 +905,39 @@
         <v>2008</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -936,39 +945,39 @@
         <v>2009</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -976,19 +985,19 @@
         <v>2010</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -996,16 +1005,16 @@
         <v>2010</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
@@ -1013,39 +1022,39 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -1056,19 +1065,19 @@
         <v>2012</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1076,16 +1085,16 @@
         <v>2012</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
         <v>58</v>
@@ -1093,19 +1102,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
         <v>58</v>
@@ -1113,22 +1122,22 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1136,16 +1145,16 @@
         <v>2014</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1156,44 +1165,64 @@
         <v>2014</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
+        <v>2014</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>2015</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>56</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>45</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>55</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F26">
-    <sortCondition ref="A2:A26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
+    <sortCondition ref="A2:A27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
